--- a/Code/Results/Cases/Case_9_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_10/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.783348510608278</v>
+        <v>1.734809458990952</v>
       </c>
       <c r="C2">
-        <v>0.4232497933537616</v>
+        <v>0.4486253921388652</v>
       </c>
       <c r="D2">
-        <v>0.1611476485084324</v>
+        <v>0.1649916288803013</v>
       </c>
       <c r="E2">
-        <v>0.1161353323748777</v>
+        <v>0.116765741474854</v>
       </c>
       <c r="F2">
-        <v>0.6531454417289027</v>
+        <v>0.6310544770220545</v>
       </c>
       <c r="G2">
-        <v>0.374707283372274</v>
+        <v>0.3360923108758413</v>
       </c>
       <c r="H2">
-        <v>1.111029249045714E-06</v>
+        <v>1.619458154911158E-06</v>
       </c>
       <c r="I2">
-        <v>0.0009532548670012631</v>
+        <v>0.001208817974690746</v>
       </c>
       <c r="J2">
-        <v>0.3060951058397023</v>
+        <v>0.3344640038691296</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1192732671044325</v>
+        <v>0.1352441299358311</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.05195878201594972</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1184679791720029</v>
       </c>
       <c r="O2">
-        <v>0.5480621005129649</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8499784515408564</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.384019772233614</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5508981368971604</v>
+      </c>
+      <c r="R2">
+        <v>0.8608146783889126</v>
+      </c>
+      <c r="S2">
+        <v>1.320028369548595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.553556463219934</v>
+        <v>1.517056331917559</v>
       </c>
       <c r="C3">
-        <v>0.3768796120448883</v>
+        <v>0.3935077258354625</v>
       </c>
       <c r="D3">
-        <v>0.1473686389149691</v>
+        <v>0.1507051425536332</v>
       </c>
       <c r="E3">
-        <v>0.107930640769446</v>
+        <v>0.108675494093557</v>
       </c>
       <c r="F3">
-        <v>0.6177771757402297</v>
+        <v>0.5992343687619908</v>
       </c>
       <c r="G3">
-        <v>0.3516273600066597</v>
+        <v>0.3165976055489921</v>
       </c>
       <c r="H3">
-        <v>0.0001373040958114746</v>
+        <v>0.000119898596377066</v>
       </c>
       <c r="I3">
-        <v>0.0005403492320503744</v>
+        <v>0.0007528183097198493</v>
       </c>
       <c r="J3">
-        <v>0.2991868142962062</v>
+        <v>0.3269639821317369</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1119943832818713</v>
+        <v>0.1400197361030706</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.05043188805654175</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.111599392808607</v>
       </c>
       <c r="O3">
-        <v>0.4788242881272495</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8548243023285025</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.320349474848143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.4811787399876408</v>
+      </c>
+      <c r="R3">
+        <v>0.8590302752089514</v>
+      </c>
+      <c r="S3">
+        <v>1.265975410353278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.411781224722461</v>
+        <v>1.382420979441434</v>
       </c>
       <c r="C4">
-        <v>0.3485866077303967</v>
+        <v>0.3600065020310979</v>
       </c>
       <c r="D4">
-        <v>0.1389589694548619</v>
+        <v>0.1420034054140729</v>
       </c>
       <c r="E4">
-        <v>0.1028860670879936</v>
+        <v>0.1037062053358468</v>
       </c>
       <c r="F4">
-        <v>0.5964962878885842</v>
+        <v>0.5800188975870597</v>
       </c>
       <c r="G4">
-        <v>0.3377762550111001</v>
+        <v>0.3049298120267352</v>
       </c>
       <c r="H4">
-        <v>0.0003943273313025131</v>
+        <v>0.0003512928423814454</v>
       </c>
       <c r="I4">
-        <v>0.0004400205254939671</v>
+        <v>0.000601124775256423</v>
       </c>
       <c r="J4">
-        <v>0.2951792458042704</v>
+        <v>0.3224211589481456</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1074832950862508</v>
+        <v>0.1430742115205561</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.04999344924299898</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1073397433224983</v>
       </c>
       <c r="O4">
-        <v>0.4362880784120904</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8585006138305502</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.282416361443666</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4383415351240245</v>
+      </c>
+      <c r="R4">
+        <v>0.8587183044832258</v>
+      </c>
+      <c r="S4">
+        <v>1.233596888085813</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.352832727713832</v>
+        <v>1.32633663244863</v>
       </c>
       <c r="C5">
-        <v>0.3377680176721469</v>
+        <v>0.3471326701196915</v>
       </c>
       <c r="D5">
-        <v>0.1356110075411365</v>
+        <v>0.138541972166685</v>
       </c>
       <c r="E5">
-        <v>0.100835485790995</v>
+        <v>0.1016878119042985</v>
       </c>
       <c r="F5">
-        <v>0.5875194430221455</v>
+        <v>0.5718643730565063</v>
       </c>
       <c r="G5">
-        <v>0.3318390482537481</v>
+        <v>0.2998918859610313</v>
       </c>
       <c r="H5">
-        <v>0.0005411840002614854</v>
+        <v>0.000484178165610305</v>
       </c>
       <c r="I5">
-        <v>0.0005001413491436679</v>
+        <v>0.0006468096290994652</v>
       </c>
       <c r="J5">
-        <v>0.293413092186988</v>
+        <v>0.3203923251734508</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1056143136100545</v>
+        <v>0.1442102776729293</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.04988232820814353</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1055735626875709</v>
       </c>
       <c r="O5">
-        <v>0.4189921414307065</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8604976700324372</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.266056886968116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.420921927770209</v>
+      </c>
+      <c r="R5">
+        <v>0.8591318815315603</v>
+      </c>
+      <c r="S5">
+        <v>1.219446998129811</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.341808859400544</v>
+        <v>1.315804627480105</v>
       </c>
       <c r="C6">
-        <v>0.3367959030223631</v>
+        <v>0.3458545936551047</v>
       </c>
       <c r="D6">
-        <v>0.1351381627000308</v>
+        <v>0.1380513615984427</v>
       </c>
       <c r="E6">
-        <v>0.1005040436067475</v>
+        <v>0.1013620325292202</v>
       </c>
       <c r="F6">
-        <v>0.5855353074625143</v>
+        <v>0.5700253635019763</v>
       </c>
       <c r="G6">
-        <v>0.3304072562594129</v>
+        <v>0.2986269364445491</v>
       </c>
       <c r="H6">
-        <v>0.0005687740673778752</v>
+        <v>0.0005091747943132274</v>
       </c>
       <c r="I6">
-        <v>0.0005985129790824217</v>
+        <v>0.0007591038557253071</v>
       </c>
       <c r="J6">
-        <v>0.2928911268875112</v>
+        <v>0.3198210649143647</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1052794806296227</v>
+        <v>0.1442313492057323</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.04980120102637109</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1052562532233807</v>
       </c>
       <c r="O6">
-        <v>0.4161762584803625</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8612425441386762</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.261915895352715</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4180853759468022</v>
+      </c>
+      <c r="R6">
+        <v>0.859640747750781</v>
+      </c>
+      <c r="S6">
+        <v>1.215706868530987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.407629603835488</v>
+        <v>1.377326943526612</v>
       </c>
       <c r="C7">
-        <v>0.3506909120547448</v>
+        <v>0.3617008383976099</v>
       </c>
       <c r="D7">
-        <v>0.1391391405331461</v>
+        <v>0.1423545849194028</v>
       </c>
       <c r="E7">
-        <v>0.1028838514910042</v>
+        <v>0.1037448327229455</v>
       </c>
       <c r="F7">
-        <v>0.595009972390308</v>
+        <v>0.5777417778849028</v>
       </c>
       <c r="G7">
-        <v>0.3364650252519752</v>
+        <v>0.3064776910160631</v>
       </c>
       <c r="H7">
-        <v>0.0003977987357675072</v>
+        <v>0.0003556622030762568</v>
       </c>
       <c r="I7">
-        <v>0.0006610940818312372</v>
+        <v>0.0008644284412024916</v>
       </c>
       <c r="J7">
-        <v>0.294521747041756</v>
+        <v>0.3175921462762687</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1073934306889406</v>
+        <v>0.1424896479352036</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.04971933256993921</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1072372556383741</v>
       </c>
       <c r="O7">
-        <v>0.436209670490733</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8596423625240561</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.278258428372979</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4380419209580495</v>
+      </c>
+      <c r="R7">
+        <v>0.8603601753826737</v>
+      </c>
+      <c r="S7">
+        <v>1.227157550291551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.69976809224886</v>
+        <v>1.652042597150995</v>
       </c>
       <c r="C8">
-        <v>0.4102298414078405</v>
+        <v>0.4310949488525182</v>
       </c>
       <c r="D8">
-        <v>0.1566854754500469</v>
+        <v>0.1609269992065094</v>
       </c>
       <c r="E8">
-        <v>0.1133421437960642</v>
+        <v>0.1141476983591758</v>
       </c>
       <c r="F8">
-        <v>0.6390505127804005</v>
+        <v>0.6154931498017788</v>
       </c>
       <c r="G8">
-        <v>0.3650489689338343</v>
+        <v>0.3371226004785086</v>
       </c>
       <c r="H8">
-        <v>1.115639488791231E-05</v>
+        <v>9.19709030489102E-06</v>
       </c>
       <c r="I8">
-        <v>0.001041066388667744</v>
+        <v>0.001336226503739546</v>
       </c>
       <c r="J8">
-        <v>0.3028270787247251</v>
+        <v>0.3174341300098718</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1166873104643606</v>
+        <v>0.1358919778136922</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.05073560087936357</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1159781036398435</v>
       </c>
       <c r="O8">
-        <v>0.5243973771465207</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8530425791542697</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.356607575477824</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5263314957753877</v>
+      </c>
+      <c r="R8">
+        <v>0.8632598249700081</v>
+      </c>
+      <c r="S8">
+        <v>1.288149934391612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.273439347257977</v>
+        <v>2.193104117185669</v>
       </c>
       <c r="C9">
-        <v>0.5245095174707046</v>
+        <v>0.5675360341968769</v>
       </c>
       <c r="D9">
-        <v>0.1911360876615333</v>
+        <v>0.1969186561735512</v>
       </c>
       <c r="E9">
-        <v>0.1337806023812007</v>
+        <v>0.1343683352522298</v>
       </c>
       <c r="F9">
-        <v>0.7315857164940738</v>
+        <v>0.6977107265032885</v>
       </c>
       <c r="G9">
-        <v>0.4260863169328388</v>
+        <v>0.3917139806154921</v>
       </c>
       <c r="H9">
-        <v>0.0007272222370080517</v>
+        <v>0.000672693172381722</v>
       </c>
       <c r="I9">
-        <v>0.002767057377986326</v>
+        <v>0.002956758721532005</v>
       </c>
       <c r="J9">
-        <v>0.3222045009826644</v>
+        <v>0.3335173979127291</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1347275022686318</v>
+        <v>0.1251763942357176</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.05742385861106136</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1329780540299907</v>
       </c>
       <c r="O9">
-        <v>0.6969871509485159</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8437945559321491</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.527224863451949</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.6998565487437034</v>
+      </c>
+      <c r="R9">
+        <v>0.8714943972019569</v>
+      </c>
+      <c r="S9">
+        <v>1.430369138310311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.685438871969041</v>
+        <v>2.574591685036978</v>
       </c>
       <c r="C10">
-        <v>0.6092586762145515</v>
+        <v>0.6657584016044211</v>
       </c>
       <c r="D10">
-        <v>0.2120653075938179</v>
+        <v>0.219942666799497</v>
       </c>
       <c r="E10">
-        <v>0.1433102838532321</v>
+        <v>0.1439643841306051</v>
       </c>
       <c r="F10">
-        <v>0.7908128246433392</v>
+        <v>0.7446534054951854</v>
       </c>
       <c r="G10">
-        <v>0.4664574926300844</v>
+        <v>0.4447623997861001</v>
       </c>
       <c r="H10">
-        <v>0.002354815395972043</v>
+        <v>0.002163464689590278</v>
       </c>
       <c r="I10">
-        <v>0.005041592596367828</v>
+        <v>0.005001559625787522</v>
       </c>
       <c r="J10">
-        <v>0.3345362634917706</v>
+        <v>0.3202733014702233</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1414005501371705</v>
+        <v>0.116502417982872</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.06319308028933079</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1388880133486055</v>
       </c>
       <c r="O10">
-        <v>0.8111497004325301</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8464978555142153</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.639065468493101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.8132519269776637</v>
+      </c>
+      <c r="R10">
+        <v>0.8907174324992155</v>
+      </c>
+      <c r="S10">
+        <v>1.507397330346919</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.824750488189295</v>
+        <v>2.698312311063603</v>
       </c>
       <c r="C11">
-        <v>0.6377570711719898</v>
+        <v>0.6888120127221953</v>
       </c>
       <c r="D11">
-        <v>0.1818242102092285</v>
+        <v>0.1907302950490362</v>
       </c>
       <c r="E11">
-        <v>0.1055538015901583</v>
+        <v>0.106120555225246</v>
       </c>
       <c r="F11">
-        <v>0.7245609968337376</v>
+        <v>0.6717415644869504</v>
       </c>
       <c r="G11">
-        <v>0.4328339954793705</v>
+        <v>0.4494107758627166</v>
       </c>
       <c r="H11">
-        <v>0.02083332133539173</v>
+        <v>0.02059814427681772</v>
       </c>
       <c r="I11">
-        <v>0.006274111541637595</v>
+        <v>0.006188670965925347</v>
       </c>
       <c r="J11">
-        <v>0.3142187894804493</v>
+        <v>0.2608287705651691</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1003383768995327</v>
+        <v>0.1059075356334027</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.05751272864936752</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.09807007230993037</v>
       </c>
       <c r="O11">
-        <v>0.753506608466509</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8979737473755307</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.525411455403969</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.7526558365459266</v>
+      </c>
+      <c r="R11">
+        <v>0.9572409984297678</v>
+      </c>
+      <c r="S11">
+        <v>1.3726907164708</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.860086085890259</v>
+        <v>2.730898913369231</v>
       </c>
       <c r="C12">
-        <v>0.6399199001504599</v>
+        <v>0.6849773513841626</v>
       </c>
       <c r="D12">
-        <v>0.1539148278480269</v>
+        <v>0.1624259315248793</v>
       </c>
       <c r="E12">
-        <v>0.07957541719988193</v>
+        <v>0.07978181089806924</v>
       </c>
       <c r="F12">
-        <v>0.6600276229277782</v>
+        <v>0.6075777947071117</v>
       </c>
       <c r="G12">
-        <v>0.398438984626921</v>
+        <v>0.4326994895558158</v>
       </c>
       <c r="H12">
-        <v>0.0592724160306588</v>
+        <v>0.05903766550812151</v>
       </c>
       <c r="I12">
-        <v>0.006429848469854171</v>
+        <v>0.006299698075998172</v>
       </c>
       <c r="J12">
-        <v>0.2955753222614419</v>
+        <v>0.231132689599562</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.08017927177790796</v>
+        <v>0.1000305592218051</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.05237002322995821</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.07827685403469253</v>
       </c>
       <c r="O12">
-        <v>0.6828012353301531</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9432115074269518</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.413515921207534</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.680602475830419</v>
+      </c>
+      <c r="R12">
+        <v>1.009653066295812</v>
+      </c>
+      <c r="S12">
+        <v>1.259939177902055</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.81180334800672</v>
+        <v>2.692735997206626</v>
       </c>
       <c r="C13">
-        <v>0.625515304519439</v>
+        <v>0.6653379235948478</v>
       </c>
       <c r="D13">
-        <v>0.1266583888346133</v>
+        <v>0.1335431113713383</v>
       </c>
       <c r="E13">
-        <v>0.0611847364109579</v>
+        <v>0.06090058991852132</v>
       </c>
       <c r="F13">
-        <v>0.591047766559015</v>
+        <v>0.5455936192136619</v>
       </c>
       <c r="G13">
-        <v>0.3595198540668463</v>
+        <v>0.3899457821935215</v>
       </c>
       <c r="H13">
-        <v>0.1146436009694156</v>
+        <v>0.1144456976827399</v>
       </c>
       <c r="I13">
-        <v>0.00606008006439307</v>
+        <v>0.005977220735525535</v>
       </c>
       <c r="J13">
-        <v>0.2761162851233223</v>
+        <v>0.2224884068713848</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.0746011230342063</v>
+        <v>0.09659612670959206</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.04718118804455962</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.07317332561907808</v>
       </c>
       <c r="O13">
-        <v>0.5987189883651922</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9871148611283331</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.290238953227458</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5966954791968817</v>
+      </c>
+      <c r="R13">
+        <v>1.052562093361047</v>
+      </c>
+      <c r="S13">
+        <v>1.155373052780163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.739215148775372</v>
+        <v>2.632879709930592</v>
       </c>
       <c r="C14">
-        <v>0.6086830075513774</v>
+        <v>0.6451608646314639</v>
       </c>
       <c r="D14">
-        <v>0.1084079694566285</v>
+        <v>0.1137897466331168</v>
       </c>
       <c r="E14">
-        <v>0.05285704980857009</v>
+        <v>0.05226908602408997</v>
       </c>
       <c r="F14">
-        <v>0.5411058027323818</v>
+        <v>0.5029652681402226</v>
       </c>
       <c r="G14">
-        <v>0.3302596723392668</v>
+        <v>0.3497429276640531</v>
       </c>
       <c r="H14">
-        <v>0.1636859628373628</v>
+        <v>0.1635251928427408</v>
       </c>
       <c r="I14">
-        <v>0.005652375916819885</v>
+        <v>0.00565486115608671</v>
       </c>
       <c r="J14">
-        <v>0.2621073354387136</v>
+        <v>0.2240950726143538</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.07928523651314379</v>
+        <v>0.0950736324254251</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.04355170789106744</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.07821937666891898</v>
       </c>
       <c r="O14">
-        <v>0.5347570694579105</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>1.017830973682081</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.198819802322902</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5334138181555019</v>
+      </c>
+      <c r="R14">
+        <v>1.07855558240243</v>
+      </c>
+      <c r="S14">
+        <v>1.084496803962665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.702477503242449</v>
+        <v>2.601723962061726</v>
       </c>
       <c r="C15">
-        <v>0.6020281437633344</v>
+        <v>0.6378001345504742</v>
       </c>
       <c r="D15">
-        <v>0.1038874958657985</v>
+        <v>0.1087501391440426</v>
       </c>
       <c r="E15">
-        <v>0.05141982681429491</v>
+        <v>0.05078006093565612</v>
       </c>
       <c r="F15">
-        <v>0.5274417643543998</v>
+        <v>0.4921439845219595</v>
       </c>
       <c r="G15">
-        <v>0.3217483592004982</v>
+        <v>0.3352411948691412</v>
       </c>
       <c r="H15">
-        <v>0.1760659558276387</v>
+        <v>0.1759213909293322</v>
       </c>
       <c r="I15">
-        <v>0.005548529900270438</v>
+        <v>0.005611545512442362</v>
       </c>
       <c r="J15">
-        <v>0.2583223968300103</v>
+        <v>0.2277048784037916</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.08143565439407041</v>
+        <v>0.09501078844169086</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.04256009782332448</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.08048221285137913</v>
       </c>
       <c r="O15">
-        <v>0.5162371766209617</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>1.025009501820179</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.172818568054339</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5152849916820657</v>
+      </c>
+      <c r="R15">
+        <v>1.082909431956722</v>
+      </c>
+      <c r="S15">
+        <v>1.066772347132741</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.533710073517113</v>
+        <v>2.453955408689524</v>
       </c>
       <c r="C16">
-        <v>0.5700262061081673</v>
+        <v>0.6057558853661931</v>
       </c>
       <c r="D16">
-        <v>0.1011999086829789</v>
+        <v>0.1046383930234427</v>
       </c>
       <c r="E16">
-        <v>0.05148973669771317</v>
+        <v>0.05097303025009126</v>
       </c>
       <c r="F16">
-        <v>0.5161614103692216</v>
+        <v>0.4900452708424439</v>
       </c>
       <c r="G16">
-        <v>0.3119448983332518</v>
+        <v>0.2983265388402785</v>
       </c>
       <c r="H16">
-        <v>0.162706826146092</v>
+        <v>0.1626285528580382</v>
       </c>
       <c r="I16">
-        <v>0.004702442371740112</v>
+        <v>0.004938893627290497</v>
       </c>
       <c r="J16">
-        <v>0.2566545877951398</v>
+        <v>0.2582624458544203</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.07968752852494987</v>
+        <v>0.09862046791304557</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.04213717073895573</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.07898908082765743</v>
       </c>
       <c r="O16">
-        <v>0.4867366862182791</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1.012533042153393</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.148361913891037</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4876793947481204</v>
+      </c>
+      <c r="R16">
+        <v>1.056272132461714</v>
+      </c>
+      <c r="S16">
+        <v>1.070132990175637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.442817167910903</v>
+        <v>2.370597476942464</v>
       </c>
       <c r="C17">
-        <v>0.5545548764447688</v>
+        <v>0.5912533037629544</v>
       </c>
       <c r="D17">
-        <v>0.1085226319706365</v>
+        <v>0.1116754470067178</v>
       </c>
       <c r="E17">
-        <v>0.05520205198560468</v>
+        <v>0.0548443612794749</v>
       </c>
       <c r="F17">
-        <v>0.5336905915348922</v>
+        <v>0.5102000281484891</v>
       </c>
       <c r="G17">
-        <v>0.319826697189427</v>
+        <v>0.2943461994193441</v>
       </c>
       <c r="H17">
-        <v>0.1246190294350242</v>
+        <v>0.1245667296989694</v>
       </c>
       <c r="I17">
-        <v>0.004307718254078274</v>
+        <v>0.004624142823724142</v>
       </c>
       <c r="J17">
-        <v>0.2627865383626542</v>
+        <v>0.2787650872286633</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.0744778790393319</v>
+        <v>0.1024010317253374</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.04353869603523464</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.07378572447959719</v>
       </c>
       <c r="O17">
-        <v>0.4974587415957075</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9869847392043312</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.17780086048387</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4993047353610152</v>
+      </c>
+      <c r="R17">
+        <v>1.02413892554253</v>
+      </c>
+      <c r="S17">
+        <v>1.108025608517281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.411083522887054</v>
+        <v>2.33832923140011</v>
       </c>
       <c r="C18">
-        <v>0.5494702323437934</v>
+        <v>0.5891062589236924</v>
       </c>
       <c r="D18">
-        <v>0.1264533662129281</v>
+        <v>0.1299734970895443</v>
       </c>
       <c r="E18">
-        <v>0.06640154223213024</v>
+        <v>0.06622664674188705</v>
       </c>
       <c r="F18">
-        <v>0.5800789831797744</v>
+        <v>0.5553989277198212</v>
       </c>
       <c r="G18">
-        <v>0.3451099397749715</v>
+        <v>0.3127198781105136</v>
       </c>
       <c r="H18">
-        <v>0.07175747731024984</v>
+        <v>0.07171008108088017</v>
       </c>
       <c r="I18">
-        <v>0.003958145184353334</v>
+        <v>0.004251759187752668</v>
       </c>
       <c r="J18">
-        <v>0.2769041044051335</v>
+        <v>0.2983873538730748</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.07336443960460126</v>
+        <v>0.1072650940254931</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.04702063487667019</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.07246451048769031</v>
       </c>
       <c r="O18">
-        <v>0.5454371555240343</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9476149147835713</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.260904580562084</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5479026297655309</v>
+      </c>
+      <c r="R18">
+        <v>0.9819463453818571</v>
+      </c>
+      <c r="S18">
+        <v>1.188477388703404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.422434452498635</v>
+        <v>2.343941112801474</v>
       </c>
       <c r="C19">
-        <v>0.5574664978676651</v>
+        <v>0.602085038613609</v>
       </c>
       <c r="D19">
-        <v>0.1540179903510079</v>
+        <v>0.1583727272736297</v>
       </c>
       <c r="E19">
-        <v>0.08874975332211577</v>
+        <v>0.08878971599858865</v>
       </c>
       <c r="F19">
-        <v>0.6463808574491026</v>
+        <v>0.6179967680181591</v>
       </c>
       <c r="G19">
-        <v>0.3815101101541671</v>
+        <v>0.3443659872188078</v>
       </c>
       <c r="H19">
-        <v>0.02677709782196303</v>
+        <v>0.02671694258008728</v>
       </c>
       <c r="I19">
-        <v>0.004164577705610739</v>
+        <v>0.004472508015715526</v>
       </c>
       <c r="J19">
-        <v>0.2957536236704499</v>
+        <v>0.3176311535309537</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.08695575837384695</v>
+        <v>0.1124029761490117</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.05170696177807343</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.08565838053851493</v>
       </c>
       <c r="O19">
-        <v>0.622985514874614</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.905570602554846</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.377533526188785</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.6259722698656631</v>
+      </c>
+      <c r="R19">
+        <v>0.9393784923241242</v>
+      </c>
+      <c r="S19">
+        <v>1.295383629987583</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.566480402275147</v>
+        <v>2.467933244531423</v>
       </c>
       <c r="C20">
-        <v>0.5941201565184429</v>
+        <v>0.6492483247241125</v>
       </c>
       <c r="D20">
-        <v>0.2070568277190006</v>
+        <v>0.2137510407288943</v>
       </c>
       <c r="E20">
-        <v>0.1406556630655089</v>
+        <v>0.1411406875042083</v>
       </c>
       <c r="F20">
-        <v>0.7703918868112112</v>
+        <v>0.7306621735825019</v>
       </c>
       <c r="G20">
-        <v>0.4516327914722211</v>
+        <v>0.4163230163311056</v>
       </c>
       <c r="H20">
-        <v>0.00182569199608773</v>
+        <v>0.001686067311901684</v>
       </c>
       <c r="I20">
-        <v>0.005067574697586785</v>
+        <v>0.005276216229840536</v>
       </c>
       <c r="J20">
-        <v>0.3291290850689421</v>
+        <v>0.3356065200429867</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1391865481869203</v>
+        <v>0.1181252040421779</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.06091160311348531</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.136926599915661</v>
       </c>
       <c r="O20">
-        <v>0.7811229176423922</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8497000842266615</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.596204120403627</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.7842468868652972</v>
+      </c>
+      <c r="R20">
+        <v>0.8880304586484016</v>
+      </c>
+      <c r="S20">
+        <v>1.483135421707715</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.891295633099901</v>
+        <v>2.746672375698552</v>
       </c>
       <c r="C21">
-        <v>0.6606009042783114</v>
+        <v>0.717802907935976</v>
       </c>
       <c r="D21">
-        <v>0.2305750299810114</v>
+        <v>0.2426415451746635</v>
       </c>
       <c r="E21">
-        <v>0.1565364793517183</v>
+        <v>0.1580049535009778</v>
       </c>
       <c r="F21">
-        <v>0.834340604039852</v>
+        <v>0.7679606690756628</v>
       </c>
       <c r="G21">
-        <v>0.4933064534948954</v>
+        <v>0.5248869079797629</v>
       </c>
       <c r="H21">
-        <v>0.003364723248233781</v>
+        <v>0.003023941089605575</v>
       </c>
       <c r="I21">
-        <v>0.007064290829148945</v>
+        <v>0.006917094226399634</v>
       </c>
       <c r="J21">
-        <v>0.3440309479363606</v>
+        <v>0.2646333746775014</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1542526315361314</v>
+        <v>0.1114133740467551</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.06534285008923391</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1510625761441489</v>
       </c>
       <c r="O21">
-        <v>0.888581930203344</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8446662288402678</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.716079573109852</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.886777121255804</v>
+      </c>
+      <c r="R21">
+        <v>0.9060275394873969</v>
+      </c>
+      <c r="S21">
+        <v>1.526872475909641</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.105213641448756</v>
+        <v>2.928497459196365</v>
       </c>
       <c r="C22">
-        <v>0.7005047973569845</v>
+        <v>0.7577376456505931</v>
       </c>
       <c r="D22">
-        <v>0.2432660854453985</v>
+        <v>0.2591805664749387</v>
       </c>
       <c r="E22">
-        <v>0.1640784470289347</v>
+        <v>0.1662882705340039</v>
       </c>
       <c r="F22">
-        <v>0.8730565046496537</v>
+        <v>0.7879081437196902</v>
       </c>
       <c r="G22">
-        <v>0.5196300573146573</v>
+        <v>0.6043082279686303</v>
       </c>
       <c r="H22">
-        <v>0.004630462284476167</v>
+        <v>0.004123212134236054</v>
       </c>
       <c r="I22">
-        <v>0.008287663529217504</v>
+        <v>0.007786610609930911</v>
       </c>
       <c r="J22">
-        <v>0.3533821109344188</v>
+        <v>0.222726397484486</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1608977888577243</v>
+        <v>0.1071352740471667</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.06838205201011505</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1571413782144333</v>
       </c>
       <c r="O22">
-        <v>0.9521658266608952</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.8430296633331409</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.791669491363649</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.9466310115535634</v>
+      </c>
+      <c r="R22">
+        <v>0.9207210593682191</v>
+      </c>
+      <c r="S22">
+        <v>1.548786371558833</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.995186223408268</v>
+        <v>2.83840719211895</v>
       </c>
       <c r="C23">
-        <v>0.6764093262520987</v>
+        <v>0.7348188011908405</v>
       </c>
       <c r="D23">
-        <v>0.2362123838411492</v>
+        <v>0.2495546406007918</v>
       </c>
       <c r="E23">
-        <v>0.160017225369014</v>
+        <v>0.1617006727953836</v>
       </c>
       <c r="F23">
-        <v>0.8539403364305258</v>
+        <v>0.7809706601604347</v>
       </c>
       <c r="G23">
-        <v>0.5069871225512657</v>
+        <v>0.5543530488393458</v>
       </c>
       <c r="H23">
-        <v>0.003937212141586932</v>
+        <v>0.003528366295906249</v>
       </c>
       <c r="I23">
-        <v>0.007349689868838105</v>
+        <v>0.006988505771925446</v>
       </c>
       <c r="J23">
-        <v>0.3491014016926499</v>
+        <v>0.2521624404881777</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1574243862380555</v>
+        <v>0.1099186580335445</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.06742912820768865</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1539929435090386</v>
       </c>
       <c r="O23">
-        <v>0.9180388756386861</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.8422844699277618</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.755794863260888</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.9151257835250775</v>
+      </c>
+      <c r="R23">
+        <v>0.909504997138157</v>
+      </c>
+      <c r="S23">
+        <v>1.547655492834764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.571188956434412</v>
+        <v>2.472179938477211</v>
       </c>
       <c r="C24">
-        <v>0.5900802883728318</v>
+        <v>0.6454382106857111</v>
       </c>
       <c r="D24">
-        <v>0.210090018517306</v>
+        <v>0.2168534584814381</v>
       </c>
       <c r="E24">
-        <v>0.1447321683121565</v>
+        <v>0.1452403483084304</v>
       </c>
       <c r="F24">
-        <v>0.7803191221129708</v>
+        <v>0.7401995346506993</v>
       </c>
       <c r="G24">
-        <v>0.4578484084691326</v>
+        <v>0.4215527351280741</v>
       </c>
       <c r="H24">
-        <v>0.001777390028716685</v>
+        <v>0.001634725083716759</v>
       </c>
       <c r="I24">
-        <v>0.004632752586724465</v>
+        <v>0.004740286654592474</v>
       </c>
       <c r="J24">
-        <v>0.3323476498407132</v>
+        <v>0.3393140718208798</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.144141308675259</v>
+        <v>0.1193357054938513</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.06203130775319821</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1418274424907509</v>
       </c>
       <c r="O24">
-        <v>0.7892532816935045</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8435337239055443</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.616117206910531</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.7924625311442597</v>
+      </c>
+      <c r="R24">
+        <v>0.881290212049251</v>
+      </c>
+      <c r="S24">
+        <v>1.501970776732975</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.11258918231988</v>
+        <v>2.042969350224553</v>
       </c>
       <c r="C25">
-        <v>0.4975649634262425</v>
+        <v>0.5353928291251577</v>
       </c>
       <c r="D25">
-        <v>0.1821744951760849</v>
+        <v>0.1872805106817026</v>
       </c>
       <c r="E25">
-        <v>0.1282985728948915</v>
+        <v>0.1288831318821551</v>
       </c>
       <c r="F25">
-        <v>0.7036464317686963</v>
+        <v>0.6739346423663761</v>
       </c>
       <c r="G25">
-        <v>0.4070129001353564</v>
+        <v>0.3704174073109243</v>
       </c>
       <c r="H25">
-        <v>0.0003589238520331772</v>
+        <v>0.0003353482453025691</v>
       </c>
       <c r="I25">
-        <v>0.002524005961679343</v>
+        <v>0.002856736921253322</v>
       </c>
       <c r="J25">
-        <v>0.3155993757997209</v>
+        <v>0.3337548831970167</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1297606754149356</v>
+        <v>0.1275260618040939</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.05480345428890843</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1283160751581036</v>
       </c>
       <c r="O25">
-        <v>0.6505654149030562</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8478599520842707</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.472791292982208</v>
+        <v>0.6535115618619898</v>
+      </c>
+      <c r="R25">
+        <v>0.870254854043516</v>
+      </c>
+      <c r="S25">
+        <v>1.387702620831192</v>
       </c>
     </row>
   </sheetData>
